--- a/insitu/30mv/insitu-30mv-Layer2-Test5.xlsx
+++ b/insitu/30mv/insitu-30mv-Layer2-Test5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubaki/Desktop/Github/zianlab/insitu/30mv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6237B9-C3DD-3441-8172-3263C6E40676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4210159D-49ED-C04E-B0F1-C74EB951874F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -872,10 +872,10 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
